--- a/kai/old/kai-warband_blackorks.xlsx
+++ b/kai/old/kai-warband_blackorks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\nein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A3E9C6D2-A0A9-4FF3-BEA4-194FEFF25714}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25888F4-7D71-4CDB-B2B5-2FD2C743F030}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,9 +404,6 @@
     <t>Anzahl</t>
   </si>
   <si>
-    <t>save45+ D6</t>
-  </si>
-  <si>
     <t>Magic rating</t>
   </si>
   <si>
@@ -429,6 +426,9 @@
   </si>
   <si>
     <t>er ges</t>
+  </si>
+  <si>
+    <t>save5+ D6</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
   <dimension ref="A2:AC114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1201,7 +1201,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="21"/>
       <c r="G3" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" s="38">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>500</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" s="41">
         <f>D19/4</f>
@@ -1243,22 +1243,22 @@
       </c>
       <c r="B6" s="4">
         <f>F19+Member!O37</f>
-        <v>500</v>
+        <v>585</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="43">
         <f>T37</f>
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="I6" s="38">
         <f>T38</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J6" s="38">
         <f>T39</f>
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1267,12 +1267,12 @@
       </c>
       <c r="B7" s="34">
         <f>B5-B6</f>
-        <v>0</v>
+        <v>-85</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="39">
         <f>(H4+H3+H6)*H5</f>
-        <v>611</v>
+        <v>734.5</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
@@ -1529,10 +1529,10 @@
         <v>94</v>
       </c>
       <c r="S22" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="T22" s="45" t="s">
         <v>129</v>
-      </c>
-      <c r="T22" s="45" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1609,16 +1609,16 @@
         <v>5</v>
       </c>
       <c r="H24" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="O24" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P24" s="6">
         <v>0</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="T24" s="44">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2126,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="6">
         <v>0</v>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="O33" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P33" s="6">
         <v>0</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="T33" s="44">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2235,13 +2235,13 @@
       <c r="D35" s="18"/>
       <c r="E35" s="29"/>
       <c r="F35" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G35">
         <v>50</v>
       </c>
       <c r="H35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="6">
         <v>0</v>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="O35" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P35" s="6">
         <v>0</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="T35" s="44">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="O36" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P36" s="6">
         <v>0</v>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="T36" s="44">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2346,19 +2346,19 @@
       <c r="G37"/>
       <c r="H37" s="3">
         <f>H23*$G23+H24*$G24+H25*$G25+H26*$G26+H27*$G27+H28*$G28+H29*$G29+H30*$G30+H31*$G31+H32*$G32+H33*$G33+H34*$G34+H35*$G35+H36*$G36</f>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" ref="I37:N37" si="1">I23*$G23+I24*$G24+I25*$G25+I26*$G26+I27*$G27+I28*$G28+I29*$G29+I30*$G30+I31*$G31+I32*$G32+I33*$G33+I34*$G34+I35*$G35+I36*$G36</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="1"/>
@@ -2374,37 +2374,37 @@
       </c>
       <c r="O37" s="2">
         <f>SUM(O23:O36)</f>
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q37" s="37">
         <f>SUM(Tabelle2[zusatzkosten])</f>
         <v>0</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T37" s="6">
         <f>SUM(Tabelle2[Warband equip rating])</f>
-        <v>67</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F38"/>
       <c r="S38" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T38" s="6">
         <f>SUM(T23:T30)</f>
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S39" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T39" s="6">
         <f>SUM(T31:T36)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
